--- a/admin_regions/subregionsSSA_v5FAO.xlsx
+++ b/admin_regions/subregionsSSA_v5FAO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNAM\Documents\mofuss\admin_regions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aghil\Documents\mofuss\admin_regions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{019274CB-2897-4651-8EAC-8F14702D151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EDF748A-4318-4CC4-9BA1-CA3C15845592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D27D6F4F-A53B-49BE-B429-77A7E73A259C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D27D6F4F-A53B-49BE-B429-77A7E73A259C}"/>
   </bookViews>
   <sheets>
     <sheet name="subregionsSSA_v5FAO" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Subregion</t>
   </si>
@@ -302,9 +302,6 @@
   </si>
   <si>
     <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Miombo_Mopane</t>
   </si>
   <si>
     <t>TZA</t>
@@ -834,48 +831,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -891,7 +888,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1210,16 +1207,16 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1252,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1274,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1318,7 +1315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1340,18 +1337,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1373,7 +1370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1384,7 +1381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1395,7 +1392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1406,7 +1403,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1439,7 +1436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1461,7 +1458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1472,7 +1469,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1483,7 +1480,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1494,7 +1491,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1505,7 +1502,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1527,7 +1524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1538,7 +1535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1549,7 +1546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1560,7 +1557,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +1568,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1582,7 +1579,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1615,18 +1612,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
         <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1637,7 +1634,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>29</v>
       </c>
@@ -1659,7 +1656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1670,7 +1667,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1681,7 +1678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1692,70 +1689,70 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>95</v>
       </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>97</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
       <c r="C46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
       <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
         <v>103</v>
       </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>89</v>
       </c>
       <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
         <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
